--- a/21-Spreads4Tests/Drift.xlsx
+++ b/21-Spreads4Tests/Drift.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/21-Spreads4Tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/21-Spreads4Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9169D640-9FC9-1444-9697-7925A8A172D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FCBD5E-B616-9E49-8CD9-A401ECA1ED3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="480" windowWidth="19540" windowHeight="18900" xr2:uid="{008B2FEE-BD6E-8742-A59F-ADD463C42F77}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -577,6 +577,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,15 +603,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,7 +920,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:H32"/>
+      <selection activeCell="G24" sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,26 +933,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="H1" s="30" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="H1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="22"/>
       <c r="E2" s="21" t="s">
         <v>26</v>
@@ -1056,7 +1055,7 @@
         <v>0.20757148022900346</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="36"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
@@ -1069,9 +1068,8 @@
         <v>0.20323927682260837</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -1082,25 +1080,23 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="28"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11">
         <f>B4+B5*B32</f>
         <v>968.0100144698464</v>
       </c>
@@ -1111,7 +1107,7 @@
       <c r="A12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="33">
         <f>SQRT(B11^2 -I2^ 2)</f>
         <v>238.09426010255984</v>
       </c>
